--- a/cuentas.xlsx
+++ b/cuentas.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE2A0A4-A4A2-43D5-8C3D-96579BE083FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{847835BA-A6F6-4397-8B14-AB4AA42948BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6627852E-FF5D-4A3D-A019-E4AA4D3EBFBE}"/>
   <bookViews>
-    <workbookView xWindow="38175" yWindow="4350" windowWidth="13425" windowHeight="14235" xr2:uid="{D59093CD-1448-44C2-9798-0612019ADB09}"/>
+    <workbookView xWindow="39465" yWindow="3735" windowWidth="26805" windowHeight="11895" xr2:uid="{D59093CD-1448-44C2-9798-0612019ADB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Fijo mensual</t>
   </si>
@@ -45,6 +53,12 @@
     <t>Abuelita</t>
   </si>
   <si>
+    <t>NANA</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
     <t>Gastos mensuales</t>
   </si>
   <si>
@@ -63,6 +77,9 @@
     <t>Cadena (Mayo)</t>
   </si>
   <si>
+    <t>capcut</t>
+  </si>
+  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -84,17 +101,26 @@
     <t>"-40,000 JUANITA"</t>
   </si>
   <si>
-    <t>"-3,000,000" UNIVERSIDAD</t>
-  </si>
-  <si>
-    <t>TOTAL PAGAR</t>
+    <t>Gastos NU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falabella </t>
+  </si>
+  <si>
+    <t>66.000+25.000</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL PAGAR ENERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,11 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,34 +483,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6A9763-13AF-4D07-A18C-D2C2A73DE76E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>6366000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -494,52 +522,61 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <f>SUM(B4+C4+D4)</f>
-        <v>3839000</v>
+        <f>SUM(B4+C4+D4+E4+F4)</f>
+        <v>6851000</v>
       </c>
       <c r="B4" s="1">
-        <v>2350000</v>
+        <v>3753000</v>
       </c>
       <c r="C4" s="1">
-        <v>1289000</v>
+        <v>1548000</v>
       </c>
       <c r="D4" s="1">
         <v>200000</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>500000</v>
+      </c>
+      <c r="F4">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <f>SUM(B6+C6+D6+E6+F6)</f>
-        <v>1820000</v>
+        <f>SUM(B6+C6+D6+E6+F6+G6)</f>
+        <v>1880000</v>
       </c>
       <c r="B6" s="1">
         <v>100000</v>
@@ -556,57 +593,94 @@
       <c r="F6" s="1">
         <v>200000</v>
       </c>
-      <c r="I6" s="1">
-        <f>SUM(A4+A6)</f>
-        <v>5659000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G6" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>602100</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>495700</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>106400</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>540000</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>310400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75">
+      <c r="A21" s="1">
+        <f>SUM(A4+A6)</f>
+        <v>8731000</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(A21-2000000)</f>
+        <v>6731000</v>
       </c>
     </row>
   </sheetData>
